--- a/backend/ThePrint.xlsx
+++ b/backend/ThePrint.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>Heading</t>
   </si>
@@ -28,28 +28,142 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Nation bigger than 200-cr Ummah. Muslims don’t get it and that makes them powerless</t>
-  </si>
-  <si>
-    <t>This week’s argument risks failing the test of what’s appropriate given the awful violence the Israeli armed forces are raining on Gaza right now. The point, however, needs to be made sooner rather than later. It also draws on, and moves a step forward from, what we wrote in a National Interest piece in October 2020.</t>
-  </si>
-  <si>
-    <t>national-interest</t>
-  </si>
-  <si>
-    <t>https://theprint.in/national-interest/nation-bigger-than-200-cr-ummah-muslims-dont-get-it-and-that-makes-them-powerless/1840908/</t>
-  </si>
-  <si>
-    <t>Bihar BJP is toeing Nitish Kumar’s line on caste now. It’s a win for JDU-RJD before elections</t>
-  </si>
-  <si>
-    <t>The issue of reservations in government jobs and educational institutes has been a part of Bihar politics since the 1970s when Karpoori Thakur pushed for a 27 per cent quota for backward castes in Bihar. On Thursday, after the Bihar assembly unanimously approved the new reservation bill, increasing the quota limit for Other Backward Classes, Extremely Backward Castes, Scheduled Castes, and scheduled Tribes from 50 per cent to 65 percent, Chief Minister Nitish Kumar remarked, “Let’s urge the Centre to conduct a national census on caste, and if needed, increase reservation.”</t>
+    <t>‘Akhilesh-Vakhilesh’ aside, Telangana Muslims will determine Congress’ place in INDIA</t>
+  </si>
+  <si>
+    <t>Back in contention in Telangana, thanks to the Bharatiya Janata Party suddenly showing withdrawal symptoms, the Congress has had its creative juices flowing again. Targeting the ruling Bharat Rashtra Samithi, the party recently tweeted a wedding card with the hashtag #BRSLOVESBJP. It mentioned the date of marriage as 30 November when the state goes to polls and the venue as Chief Minister K Chandrasekhar Rao’s farmhouse. As for dowry, the invitation card said, K Kavitha, KCR’s daughter and legislator, will not be arrested in the Delhi liquor scam. There would be “saat pheras” on demonetisation, Kaleshwaram irrigation project, no CBI inquiry into paper leaks and Bandi Sanjay Kumar’s replacement with G Kishan Reddy as the state BJP chief, among others.</t>
   </si>
   <si>
     <t>opinion</t>
   </si>
   <si>
-    <t>https://theprint.in/opinion/newsmaker-of-the-week/bihar-bjp-is-toeing-nitish-kumars-line-on-caste-now-its-a-win-for-jdu-rjd-before-elections/1840929/</t>
+    <t>https://theprint.in/opinion/politically-correct/akhilesh-vakhilesh-aside-telangana-muslims-will-determine-congress-place-in-india/1842711/</t>
+  </si>
+  <si>
+    <t>‘Rachin… Rachin’ — ‘Bangalore boy’ is New Zealand’s breakout star, and he is just getting started</t>
+  </si>
+  <si>
+    <t>Bengaluru: Kiwi cricketer Rachin Ravindra has set at least two world records in the past two weeks of the Men’s ODI World Cup 2023 — and he wasn’t even supposed to play in it.</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>https://theprint.in/sport/rachin-rachin-bangalore-boy-is-new-zealands-breakout-star-and-he-is-just-getting-started/1841557/</t>
+  </si>
+  <si>
+    <t>‘Pehle ghode pe baithte the, ab gadhe par’ — anger with BJP, caste loyalty reign supreme in Dimani</t>
+  </si>
+  <si>
+    <t>Dimani: Ram Prasad Sharma, a farmer in Dimani in Madhya Pradesh’s Morena district, woke up at 6 am and rushed to a cooperative society in his area to buy a bag of fertiliser. At noon, after spending nearly six hours in a queue, all he got was a torn bag of fertiliser with at least 5 kg missing, he told ThePrint.</t>
+  </si>
+  <si>
+    <t>politics</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/pehle-ghode-pe-baithte-the-ab-gadhe-par-anger-with-bjp-caste-loyalty-reign-supreme-in-dimani/1841938/</t>
+  </si>
+  <si>
+    <t>Congress talks big about caste census but its Madhya Pradesh candidate list lacks OBC names</t>
+  </si>
+  <si>
+    <t>The Congress has recently taken two visible turns at the front of social justice. First, the party appointed Mallikarjun Kharge, a veteran leader from the Dalit community as its national president. Second, Rahul Gandhi started using the slogan of ‘Jitnai Aabadi, Utana Haq’, the rights of a group are proportionate to its population share. Then the Congress started advocating for a caste census. It has already attempted to increase OBC reservation up to 27 per cent in a few states.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/congress-talks-big-about-caste-census-but-its-madhya-pradesh-candidate-list-lacks-obc-names/1842710/</t>
+  </si>
+  <si>
+    <t>Modi govt’s model village scheme has fared poorly. MPs adopted only half of targeted panchayats</t>
+  </si>
+  <si>
+    <t>New Delhi: As the Union government’s Saansad Adarsh Gram Yojana (SAGY) — a 10-year project launched in 2014 to boost development in villages — nears its deadline, only about 52 percent of the around 6,000 gram panchayats (GP) targeted by the scheme have been adopted by members of Parliament (MPs), ThePrint has learnt.</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/governance/modi-govts-model-village-scheme-has-fared-poorly-mps-adopted-only-half-of-targeted-panchayats/1840335/</t>
+  </si>
+  <si>
+    <t>How much debt is too much debt? Curious case of Pakistan’s $69 billion Chinese debt trap</t>
+  </si>
+  <si>
+    <t>New Delhi: Close to $69 billion ($68.91 billion) — that’s the total sum of money China has lent Pakistan. A considerable chunk of this ($55.8 billion) was lent between 2013 and 2021, with $33 billion lent during a three-year period, from 2015 to 2017, a study has revealed.</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>https://theprint.in/economy/how-much-debt-is-too-much-debt-case-of-pakistan-its-chinese-credit-in-aiddata-report/1842106/</t>
+  </si>
+  <si>
+    <t>Hamas attack shows human intelligence is crucial for national security. Tech doesn’t catch intent</t>
+  </si>
+  <si>
+    <t>After the Yom Kippur War of 1973, the Israelis created a red team to challenge assessments and options made by the intelligence community. This had been necessitated by the fact that in late September or early October 1973, while reports existed of large-scale Arab troop movements, these were discounted as inconsequential, leading to the Israelis being taken by surprise when the Arab forces launched attacks on multiple fronts on 6 October that year.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/hamas-attack-shows-human-intelligence-is-crucial-for-national-security-tech-doesnt-catch-intent/1842188/</t>
+  </si>
+  <si>
+    <t>Delhi’s govt vet hospitals are broken. Private care for the rich pets</t>
+  </si>
+  <si>
+    <t>New Delhi: Rupali Tripathi’s kittens were doomed. The person who was supposed to give them a loving home brutally beat them instead. On top of that, the Delhi government veterinary hospital was garbage-strewn, thinly staffed and short on basics like cotton and bandages. Tripathi’s ordeal ended in five dead kittens and a Rs 1.5 lakh bill.</t>
+  </si>
+  <si>
+    <t>ground-reports</t>
+  </si>
+  <si>
+    <t>https://theprint.in/ground-reports/delhis-govt-vet-hospitals-are-broken-private-care-for-the-rich-pets/1841048/</t>
+  </si>
+  <si>
+    <t>Largest Gaza hospital not functioning owing to Israeli strikes, says WHO Chief</t>
+  </si>
+  <si>
+    <t>Gaza/Jerusalem: The largest hospital in Gaza has ceased to function and fatalities among patients are rising, the head of the World Health Organization (WHO) said on Sunday, as a blistering Israeli assault continues in the Hamas-controlled strip.</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>https://theprint.in/world/largest-gaza-hospital-not-functioning-amid-israeli-assault/1842584/</t>
+  </si>
+  <si>
+    <t>BJP goes easy on age limit of candidates in MP, fields seasoned warhorses to retain power</t>
+  </si>
+  <si>
+    <t>Bhopal: When it nominated seven MPs, including three Union ministers, and a general secretary for Madhya Pradesh assembly elections and organised whirlwind tours of Prime Minister Narendra Modi, the BJP left no room for doubt about its singular resolve to retain power in the state at any cost.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/bjp-goes-easy-over-age-turns-to-warhorses-to-retain-power-in-mp/1842594/</t>
+  </si>
+  <si>
+    <t>States with English-medium schools have higher wages. Look at Kerala, Tamil Nadu, Punjab</t>
+  </si>
+  <si>
+    <t>The National Education Policy 2020 seeks to move to a system where children learn in native Indian languages and not in English. After the explicit push for Hindi in the draft version of the policy was met with loud protests, the final version opted for an implicit push. The glorification and push for Sanskrit — a language that has been dead for centuries — survives in the final draft, though.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/states-with-english-medium-schools-have-higher-wages-look-at-kerala-tamil-nadu-punjab/1841233/</t>
+  </si>
+  <si>
+    <t>Reddys, Sharmas, Raghavans… but Dalits missing from White House Diwali celebrations</t>
+  </si>
+  <si>
+    <t>The White House’s annual Diwali celebrations have, for many years, embodied the spirit of the festival of lights, serving as a moment of unity within the heart of American democracy. However, these celebrations have also been shadowed by a disconcerting pattern of exclusion of Dalits that can no longer be overlooked. It’s time to illuminate this dark chapter in the history of White House Diwali celebrations and call for transformative change.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/reddys-sharmas-raghavans-but-dalits-missing-from-white-house-diwali-celebrations/1841600/</t>
+  </si>
+  <si>
+    <t>Kohli’s 50th ton is a big worry for fans. King’s focused on cup, not the crown</t>
+  </si>
+  <si>
+    <t>One of the defining aspects of Sachin Tendulkar’s cricketing career was that he carried the burden of a nation’s hope, not just of the Indian team. Its most public, vocal admission came in 2011 World Cup after the Indian team’s victory lap in Wankhede. “He has carried the burden of the nation for 21 years, so it’s time we carried him on our shoulders.” Few would have predicted then that the speaker of these words, Virat Kohli, 22 years old at the time, would go on to shoulder that burden himself.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/pov/kohlis-50th-ton-is-a-big-worry-for-fans-kings-focused-on-cup-not-the-crown/1841608/</t>
   </si>
   <si>
     <t>Pawdicures, spa, Gucci goodies — celeb felines &amp; dogs are having their moment this Diwali</t>
@@ -61,82 +175,34 @@
     <t>https://theprint.in/opinion/pawdicures-spa-gucci-goodies-celeb-felines-dogs-are-having-their-moment-this-diwali/1841224/</t>
   </si>
   <si>
-    <t>India has gone into data discomfort. Explains silence on Bihar caste inequality</t>
-  </si>
-  <si>
-    <t>First we had an x-ray, now we have an MRI. If the first round of caste ‘census’ data in Bihar established that caste count was possible and useful, the second tranche of data has established beyond doubt that a nationwide caste census is essential to combat social inequalities in today’s India. To those who needed evidence, the recently released data from Bihar demonstrates that caste matters. Caste continues to be a determinant of educational opportunities, a robust indicator of economic status, and a gateway to decent employment opportunities.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/india-has-gone-into-data-discomfort-explains-silence-on-bihar-caste-inequality/1839572/</t>
-  </si>
-  <si>
-    <t>12 people die in Haryana due to spurious liquor consumption</t>
-  </si>
-  <si>
-    <t>Yamunanagar: With the death of five more people, the toll in a suspected case of poisoning due to the consumption of spurious liquor has climbed to 12 in Haryana, officials said on Friday.</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>https://theprint.in/india/death-toll-in-haryanas-spurious-liquor-case-climbs-to-12/1841034/</t>
-  </si>
-  <si>
-    <t>Iranian president to travel to Saudi Arabia to attend OIC Summit on Gaza</t>
-  </si>
-  <si>
-    <t>Tehran: Iranian President Ebrahim Raisi will travel to Saudi Arabia to attend the Organisation of Islamic Cooperation (OIC) summit, where the issue of the Palestine and Gaza crisis will be discussed, Islamic Republic News Agency (IRNA) reported.</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>https://theprint.in/world/iranian-president-to-travel-to-saudi-arabia-to-attend-oic-summit-on-gaza-crisis/1841134/</t>
-  </si>
-  <si>
-    <t>‘On average, a child is killed every 10 minutes in Gaza’: WHO Chief to UN Security Council</t>
-  </si>
-  <si>
-    <t>United Nations: A child is killed on average every 10 minutes in the Gaza Strip, World Health Organization Director-General Tedros Adhanom Ghebreyesus told the United Nations Security Council on Friday, warning: “Nowhere and no one is safe.”</t>
-  </si>
-  <si>
-    <t>https://theprint.in/world/a-child-killed-on-average-every-10-minutes-in-gaza-says-who-chief/1841182/</t>
-  </si>
-  <si>
-    <t>Canada investigates online warnings against Air India passengers travelling on 19 November</t>
-  </si>
-  <si>
-    <t>Ottawa: Canada has said it takes any “threat” to aviation “extremely seriously” and is investigating online warnings, days after a banned pro-Khalistani group warned Air India passengers against travelling on November 19.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/world/canadian-authorities-investigating-possible-threat-against-air-india-passengers-on-nov-19/1839975/</t>
-  </si>
-  <si>
-    <t>Diwali burns are preventable, but be prepared. Here’s a guide to first aid and after-care</t>
-  </si>
-  <si>
-    <t>Diwali illuminates the night sky with a myriad of colours, but it brings with it a dark side that often goes unaddressed— an alarming increase in burn injuries. Doctors have even called this phenomenon a “seasonal and preventable epidemic”.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/diwali-burns-are-preventable-but-be-prepared-heres-a-guide-to-first-aid-and-after-care/1841000/</t>
-  </si>
-  <si>
-    <t>Corporate India might be getting top heavy, but it is smaller firms that are fetching higher returns</t>
-  </si>
-  <si>
-    <t>Understanding what is going on in India is never simple, for there are always contradictory narratives. One story is that Indian business is getting increasingly oligopolistic, with the dominant players gaining ground in most sectors and leading therefore to economic concentration.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/corporate-india-might-be-getting-top-heavy-but-it-is-smaller-firms-that-are-fetching-higher-returns/1840765/</t>
-  </si>
-  <si>
-    <t>Indians have a toxic relationship with overwork culture. They are taught ‘work is worship’</t>
-  </si>
-  <si>
-    <t>One of the most popular quotes found in many random places in small towns is attributed to Jawaharlal Nehru. “Aaram Haram hai.” Don’t rest easy. Like many quotes falsely attributed to APJ Abdul Kalam, this one by Nehru too became part of everyday street literature. Legendary graffiti artist Banksy once painted a fake quote attributed to Greek philosopher Plato on a blue door in Brooklyn: “I have a theory that you can make any sentence seem profound by writing the name of a dead philosopher at the end of it — Plato.”</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/indians-have-a-toxic-relationship-with-overwork-culture-they-are-taught-work-is-worship/1839074/</t>
+    <t>Delhi is a city of ‘jalis’, not djinns. No other city has so many of them</t>
+  </si>
+  <si>
+    <t>New Delhi: Mitchel Abdul Karim Crites was at the shrine of Sufi saint Khwaja Hazrat Nizamuddin Auliya in New Delhi when he first paid attention to its intricate jalis. The American art historian was entranced by the playful patterned interplay of light and shadow filtering through the pierced screens, the signature architectural style of the Delhi Sultanate and the Mughals.</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>https://theprint.in/feature/around-town/delhi-is-a-city-of-jalis-not-djinns-no-other-city-has-so-many-of-them/1841810/</t>
+  </si>
+  <si>
+    <t>Reading ‘Modi’ script, mapping family trees — how Maharashtra’s scouring old records to identify Kunbis</t>
+  </si>
+  <si>
+    <t>Mumbai: More than 300 people at work in every taluka, a high demand for Modi script translators, a prototype of how the word “Kunbi” can be written in different ways in different scripts and, in some cases, district level officials going village to village to map family trees.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/reading-modi-script-mapping-family-trees-how-maharashtras-scouring-old-records-to-identify-kunbis/1840541/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘Free school education, cheap power, infra boost’ — what BJP is promising in its manifesto for MP </t>
+  </si>
+  <si>
+    <t>Bhopal: Free education for girls from economically disadvantaged families, 100 units of power at Rs 100 and a boost to infrastructure in the form of new expressways, Metro lines and airports form the key highlights of the Bharatiya Janata Party’s (BJP) manifesto for Madhya Pradesh, unveiled Saturday.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/free-school-education-cheap-power-infra-boost-what-bjp-is-promising-in-its-manifesto-for-mp/1841506/</t>
   </si>
   <si>
     <t>BJP names Yediyurappa’s son Vijayendra as Karnataka party chief</t>
@@ -145,9 +211,6 @@
     <t>Bengaluru: The BJP Friday named veteran Karnataka leader B.S. Yediyurappa’s son as the state unit chief, in the clearest signal that the party continues to rely on the former chief minister rather than groom a set of backup leaders.</t>
   </si>
   <si>
-    <t>politics</t>
-  </si>
-  <si>
     <t>https://theprint.in/politics/bjp-names-yediyurappas-son-vijayendra-as-karnataka-party-chief/1840671/</t>
   </si>
   <si>
@@ -160,82 +223,13 @@
     <t>https://theprint.in/politics/assam-congress-mla-arrested-for-remarks-on-temple-priests-gets-bail-asked-to-apologise-by-party/1839689/</t>
   </si>
   <si>
-    <t>KCR banks on his age-old strategy to take on resurgent Congress in Telangana — the statehood sentiment</t>
-  </si>
-  <si>
-    <t>Hyderabad: Telangana sentiment and taunting of Andhra Pradesh leaders is back in Bharat Rashtra Samithi chief K Chandrashekar Rao’s (KCR’s) poll campaign diction, as the ruling party faces a stiff fight with the Congress and BJP in the 30 November Telangana polls.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/politics/kcr-banks-on-his-age-old-strategy-to-take-on-resurgent-congress-in-telangana-the-statehood-sentiment/1838953/</t>
-  </si>
-  <si>
-    <t>‘Stupid of me to make him CM’ — Nitish launches into tirade against Manjhi in Bihar Assembly</t>
-  </si>
-  <si>
-    <t>Patna: A day after he apologised for his controversial remarks on birth control, Bihar Chief Minister Nitish Kumar Thursday launched into a tirade, in the state legislative assembly, against former ally Jitan Ram Manjhi, whom Nitish had picked to lead the state after the Janata Dal (United)’s poor showing in the 2014 Lok Sabha polls.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/politics/stupid-of-me-to-make-him-cm-nitish-launches-into-tirade-against-manjhi-in-bihar-assembly/1839271/</t>
-  </si>
-  <si>
-    <t>SC ruling on Punjab Governor’s role sets House in order. Kerala and Tamil Nadu must take cue</t>
-  </si>
-  <si>
-    <t>Supreme Court’s ruling on the Punjab Governor’s role sets the House in order. It will hopefully end the impasse between Governors and governments in states. Kerala and Tamil Nadu Governors should also take cue and act in a manner that augurs well for parliamentary democracy, instead of ‘playing with fire’.</t>
-  </si>
-  <si>
-    <t>50-word-edit</t>
-  </si>
-  <si>
-    <t>https://theprint.in/50-word-edit/many-central-agencies-cleared-kaleshwaram-irrigation-project-bjp-cant-wash-its-hands-off-it/1840186/</t>
-  </si>
-  <si>
-    <t>In IIT vs BHU war, idea of a wall rises. Will it stop sexual attacks on women?</t>
-  </si>
-  <si>
-    <t>Varanasi: Nineteen-year-old Rashmi* is reminded of her attacker every day when she walks from her hostel to her lecture hall at the venerable 107-year-old Banaras Hindu University.</t>
-  </si>
-  <si>
-    <t>ground-reports</t>
-  </si>
-  <si>
-    <t>https://theprint.in/ground-reports/in-iit-vs-bhu-war-a-demand-for-a-wall-rises-will-it-stop-sexual-attacks-on-women/1837891/</t>
-  </si>
-  <si>
-    <t>2+2 dialogue: India &amp; US to deepen defence cooperation. MQ9B drones, Stryker discussed</t>
-  </si>
-  <si>
-    <t>New Delhi: Taking defence cooperation a notch higher during the 2+2 dialogue held Friday, India and US are paving the way to cooperate on the development of infantry combat vehicles.</t>
-  </si>
-  <si>
-    <t>diplomacy</t>
-  </si>
-  <si>
-    <t>https://theprint.in/diplomacy/22-dialogue-india-us-to-deepen-defence-cooperation-mq9b-drones-stryker-discussed/1840641/</t>
-  </si>
-  <si>
-    <t>On dead patient’s plea, HC asks Centre for ‘best option’ to make affordable breast cancer meds available</t>
-  </si>
-  <si>
-    <t>New Delhi: The Kerala High Court has ordered the Union health ministry to furnish, before 22 November, the “best alternative” for making affordable breast cancer medication available to patients struggling to access life-saving drugs in India.</t>
-  </si>
-  <si>
-    <t>judiciary</t>
-  </si>
-  <si>
-    <t>https://theprint.in/judiciary/on-dead-patients-plea-hc-asks-centre-for-best-option-to-make-affordable-breast-cancer-meds-available/1839143/</t>
-  </si>
-  <si>
-    <t>States spending better, with many prioritising capex. But those dependent on Centre may face stress</t>
-  </si>
-  <si>
-    <t>An analysis of the finances for 23 states for the first half of the current year shows that there has been a significant improvement in the expenditure quality of states. Capital expenditure of states grew by a significant 52 percent over the same period last year. Growth in revenue expenditure is modest at 9.7 percent.</t>
-  </si>
-  <si>
-    <t>macrosutra</t>
-  </si>
-  <si>
-    <t>https://theprint.in/macrosutra/states-spending-better-with-many-prioritising-capex-but-those-dependent-on-centre-may-face-stress/1838747/</t>
+    <t>Bangladeshi Muslims are building a 300-yr-old Kali temple. Now they want Modi’s help</t>
+  </si>
+  <si>
+    <t>The 300-year-old Sasan Kali temple at Basurdhuljhuri village in Bangladesh’s Magura district — 176 km from Dhaka — was partly washed away in 2000 floods. Today, Muslims and Hindus have come together to rebuild it and want the Bangladesh and the Indian governments to help them.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/ground-reports/bangladeshi-muslims-are-building-a-300-yr-old-kali-temple-now-they-want-modis-help/1841292/</t>
   </si>
 </sst>
 </file>
@@ -636,217 +630,217 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>65</v>
@@ -860,24 +854,24 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
